--- a/branches/main/StructureDefinition-hiv-cd4-test.xlsx
+++ b/branches/main/StructureDefinition-hiv-cd4-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T07:57:23+00:00</t>
+    <t>2021-10-01T08:08:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-cd4-test.xlsx
+++ b/branches/main/StructureDefinition-hiv-cd4-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:08:42+00:00</t>
+    <t>2021-10-01T08:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-cd4-test.xlsx
+++ b/branches/main/StructureDefinition-hiv-cd4-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:12:33+00:00</t>
+    <t>2022-06-22T18:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-cd4-test.xlsx
+++ b/branches/main/StructureDefinition-hiv-cd4-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-22T18:40:24+00:00</t>
+    <t>2022-08-17T09:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1795,37 +1795,37 @@
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="17.96484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>

--- a/branches/main/StructureDefinition-hiv-cd4-test.xlsx
+++ b/branches/main/StructureDefinition-hiv-cd4-test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="458">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T09:42:33+00:00</t>
+    <t>2022-09-14T08:40:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -299,7 +299,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -1144,6 +1144,10 @@
   </si>
   <si>
     <t>Observation.referenceRange.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -5638,13 +5642,13 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>360</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5695,7 +5699,7 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5719,7 +5723,7 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5730,7 +5734,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5759,7 +5763,7 @@
         <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>140</v>
@@ -5812,7 +5816,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5836,7 +5840,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5847,11 +5851,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5873,10 +5877,10 @@
         <v>137</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>140</v>
@@ -5931,7 +5935,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5966,7 +5970,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5989,13 +5993,13 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6046,7 +6050,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6055,7 +6059,7 @@
         <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>103</v>
@@ -6067,10 +6071,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6081,7 +6085,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6104,13 +6108,13 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6161,7 +6165,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6170,7 +6174,7 @@
         <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>103</v>
@@ -6182,10 +6186,10 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6196,7 +6200,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6222,16 +6226,16 @@
         <v>189</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6259,10 +6263,10 @@
         <v>115</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>81</v>
@@ -6280,7 +6284,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6298,10 +6302,10 @@
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>303</v>
@@ -6315,7 +6319,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6341,16 +6345,16 @@
         <v>189</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6378,10 +6382,10 @@
         <v>205</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>81</v>
@@ -6399,7 +6403,7 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6417,10 +6421,10 @@
         <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>303</v>
@@ -6434,7 +6438,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6457,17 +6461,17 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>81</v>
@@ -6516,7 +6520,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6540,7 +6544,7 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6551,7 +6555,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6574,13 +6578,13 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>93</v>
+        <v>360</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6631,7 +6635,7 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -6652,10 +6656,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6666,7 +6670,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6689,16 +6693,16 @@
         <v>92</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6748,7 +6752,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6769,10 +6773,10 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6783,7 +6787,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6806,16 +6810,16 @@
         <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6865,7 +6869,7 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6886,10 +6890,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6900,7 +6904,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6908,7 +6912,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>80</v>
@@ -6926,16 +6930,16 @@
         <v>351</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
@@ -6972,7 +6976,7 @@
         <v>81</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AB44" s="2"/>
       <c r="AC44" t="s" s="2">
@@ -6982,7 +6986,7 @@
         <v>249</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -7003,10 +7007,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7017,7 +7021,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7040,13 +7044,13 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>93</v>
+        <v>360</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7097,7 +7101,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7121,7 +7125,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7132,7 +7136,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7161,7 +7165,7 @@
         <v>138</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>140</v>
@@ -7214,7 +7218,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7238,7 +7242,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7249,11 +7253,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7275,10 +7279,10 @@
         <v>137</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>140</v>
@@ -7333,7 +7337,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7368,7 +7372,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7394,13 +7398,13 @@
         <v>189</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>203</v>
@@ -7452,7 +7456,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>91</v>
@@ -7470,7 +7474,7 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>210</v>
@@ -7487,7 +7491,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7513,13 +7517,13 @@
         <v>273</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>275</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>277</v>
@@ -7571,7 +7575,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7589,7 +7593,7 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>280</v>
@@ -7606,7 +7610,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7632,13 +7636,13 @@
         <v>189</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>287</v>
@@ -7690,7 +7694,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7725,7 +7729,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7809,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7844,7 +7848,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7870,10 +7874,10 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>354</v>
@@ -7928,7 +7932,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -7963,10 +7967,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>81</v>
@@ -7991,16 +7995,16 @@
         <v>351</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>81</v>
@@ -8049,7 +8053,7 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -8070,10 +8074,10 @@
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8084,7 +8088,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8107,13 +8111,13 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>93</v>
+        <v>360</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8164,7 +8168,7 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -8188,7 +8192,7 @@
         <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8199,7 +8203,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8228,7 +8232,7 @@
         <v>138</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>140</v>
@@ -8281,7 +8285,7 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -8305,7 +8309,7 @@
         <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -8316,11 +8320,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8342,10 +8346,10 @@
         <v>137</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>140</v>
@@ -8400,7 +8404,7 @@
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -8435,7 +8439,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8461,13 +8465,13 @@
         <v>189</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>203</v>
@@ -8480,7 +8484,7 @@
         <v>81</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>81</v>
@@ -8519,7 +8523,7 @@
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>91</v>
@@ -8537,7 +8541,7 @@
         <v>81</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>210</v>
@@ -8554,7 +8558,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8577,16 +8581,16 @@
         <v>92</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>275</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>277</v>
@@ -8636,7 +8640,7 @@
         <v>249</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
@@ -8654,7 +8658,7 @@
         <v>81</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>280</v>
@@ -8671,10 +8675,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>81</v>
@@ -8696,16 +8700,16 @@
         <v>92</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>275</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>277</v>
@@ -8757,7 +8761,7 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
@@ -8775,7 +8779,7 @@
         <v>81</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>280</v>
@@ -8792,7 +8796,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8818,13 +8822,13 @@
         <v>189</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>287</v>
@@ -8876,7 +8880,7 @@
         <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
@@ -8911,7 +8915,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8995,7 +8999,7 @@
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -9030,7 +9034,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9056,10 +9060,10 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>354</v>
@@ -9114,7 +9118,7 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -9149,10 +9153,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>81</v>
@@ -9177,16 +9181,16 @@
         <v>351</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>81</v>
@@ -9235,7 +9239,7 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -9256,10 +9260,10 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9270,7 +9274,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9293,13 +9297,13 @@
         <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>93</v>
+        <v>360</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9350,7 +9354,7 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
@@ -9374,7 +9378,7 @@
         <v>81</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -9385,7 +9389,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9414,7 +9418,7 @@
         <v>138</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>140</v>
@@ -9467,7 +9471,7 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
@@ -9491,7 +9495,7 @@
         <v>81</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>81</v>
@@ -9502,11 +9506,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9528,10 +9532,10 @@
         <v>137</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>140</v>
@@ -9586,7 +9590,7 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -9621,7 +9625,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9647,13 +9651,13 @@
         <v>189</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>203</v>
@@ -9666,7 +9670,7 @@
         <v>81</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>81</v>
@@ -9705,7 +9709,7 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>91</v>
@@ -9723,7 +9727,7 @@
         <v>81</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>210</v>
@@ -9740,7 +9744,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9763,16 +9767,16 @@
         <v>92</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>275</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>277</v>
@@ -9822,7 +9826,7 @@
         <v>249</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -9840,7 +9844,7 @@
         <v>81</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>280</v>
@@ -9857,10 +9861,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>81</v>
@@ -9882,16 +9886,16 @@
         <v>92</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>275</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>277</v>
@@ -9943,7 +9947,7 @@
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -9961,7 +9965,7 @@
         <v>81</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>280</v>
@@ -9978,7 +9982,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10004,13 +10008,13 @@
         <v>189</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>287</v>
@@ -10062,7 +10066,7 @@
         <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
@@ -10097,7 +10101,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10181,7 +10185,7 @@
         <v>81</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
@@ -10216,7 +10220,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10242,10 +10246,10 @@
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>354</v>
@@ -10300,7 +10304,7 @@
         <v>81</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>

--- a/branches/main/StructureDefinition-hiv-cd4-test.xlsx
+++ b/branches/main/StructureDefinition-hiv-cd4-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:40:35+00:00</t>
+    <t>2022-09-14T09:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-cd4-test.xlsx
+++ b/branches/main/StructureDefinition-hiv-cd4-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:10:35+00:00</t>
+    <t>2022-09-19T11:28:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-cd4-test.xlsx
+++ b/branches/main/StructureDefinition-hiv-cd4-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:28:39+00:00</t>
+    <t>2022-09-19T11:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-cd4-test.xlsx
+++ b/branches/main/StructureDefinition-hiv-cd4-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:47:22+00:00</t>
+    <t>2022-10-06T14:49:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
